--- a/第06组/06组项目计划表 .xlsx
+++ b/第06组/06组项目计划表 .xlsx
@@ -232,36 +232,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,17 +246,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -297,9 +292,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,30 +309,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,11 +323,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -374,6 +367,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -384,187 +384,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,30 +655,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -694,6 +670,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -705,6 +699,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -727,17 +736,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -760,10 +760,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -772,133 +772,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1290,7 +1290,7 @@
   <dimension ref="A1:D158"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="C155" sqref="C155"/>
+      <selection activeCell="F143" sqref="F142:F143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -2798,7 +2798,9 @@
       <c r="B151" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C151" s="4"/>
+      <c r="C151" s="4">
+        <v>0.85</v>
+      </c>
       <c r="D151" s="3"/>
     </row>
     <row r="152" spans="1:4">
@@ -2808,7 +2810,9 @@
       <c r="B152" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C152" s="4"/>
+      <c r="C152" s="4">
+        <v>0.75</v>
+      </c>
       <c r="D152" s="3"/>
     </row>
     <row r="153" spans="1:4">
@@ -2818,7 +2822,9 @@
       <c r="B153" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C153" s="4"/>
+      <c r="C153" s="4">
+        <v>0.94</v>
+      </c>
       <c r="D153" s="3"/>
     </row>
     <row r="154" spans="1:4">
@@ -2828,7 +2834,9 @@
       <c r="B154" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C154" s="4"/>
+      <c r="C154" s="4">
+        <v>0.7</v>
+      </c>
       <c r="D154" s="3"/>
     </row>
     <row r="155" spans="1:4">
@@ -2838,7 +2846,9 @@
       <c r="B155" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C155" s="4"/>
+      <c r="C155" s="4">
+        <v>1</v>
+      </c>
       <c r="D155" s="3"/>
     </row>
     <row r="156" spans="1:4">

--- a/第06组/06组项目计划表 .xlsx
+++ b/第06组/06组项目计划表 .xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="67">
   <si>
     <t>日期：2018.9.27 第五周周四</t>
   </si>
@@ -208,7 +208,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>内容:编写聊天模块的测试报告</t>
+    <t>内容:编写android端聊天模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容:测试服务器端与客户端数据传输格式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.11.15 第十一周思</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容:编写web端聊天模块的测试计划</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -351,9 +363,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -371,6 +380,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -676,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D168"/>
+  <dimension ref="A1:D178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="F149" sqref="F149"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="F152" sqref="F152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -691,12 +703,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -775,12 +787,12 @@
       <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -859,12 +871,12 @@
       <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
@@ -947,26 +959,26 @@
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="7"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="8"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="10"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
@@ -1049,26 +1061,26 @@
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="7"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="6"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="8"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="10"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
@@ -1151,26 +1163,26 @@
       <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="7"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="6"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="8"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="10"/>
+      <c r="A48" s="7"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="9"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
@@ -1227,26 +1239,26 @@
       <c r="D56" s="2"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="7"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="6"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A58" s="8"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="10"/>
+      <c r="A58" s="7"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="9"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
@@ -1329,26 +1341,26 @@
       <c r="D66" s="2"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="7"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="6"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A68" s="8"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="10"/>
+      <c r="A68" s="7"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="9"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
@@ -1431,26 +1443,26 @@
       <c r="D76" s="2"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B77" s="6"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="7"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="6"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A78" s="8"/>
-      <c r="B78" s="9"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="10"/>
+      <c r="A78" s="7"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="9"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
@@ -1533,26 +1545,26 @@
       <c r="D86" s="2"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A87" s="5" t="s">
+      <c r="A87" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="7"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="6"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A88" s="8"/>
-      <c r="B88" s="9"/>
-      <c r="C88" s="9"/>
-      <c r="D88" s="10"/>
+      <c r="A88" s="7"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="9"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A89" s="4" t="s">
+      <c r="A89" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
@@ -1635,26 +1647,26 @@
       <c r="D96" s="2"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A97" s="5" t="s">
+      <c r="A97" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B97" s="6"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="7"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="6"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A98" s="8"/>
-      <c r="B98" s="9"/>
-      <c r="C98" s="9"/>
-      <c r="D98" s="10"/>
+      <c r="A98" s="7"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="9"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A99" s="4" t="s">
+      <c r="A99" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
@@ -1737,26 +1749,26 @@
       <c r="D106" s="2"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A107" s="5" t="s">
+      <c r="A107" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B107" s="6"/>
-      <c r="C107" s="6"/>
-      <c r="D107" s="7"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="6"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A108" s="8"/>
-      <c r="B108" s="9"/>
-      <c r="C108" s="9"/>
-      <c r="D108" s="10"/>
+      <c r="A108" s="7"/>
+      <c r="B108" s="8"/>
+      <c r="C108" s="8"/>
+      <c r="D108" s="9"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A109" s="4" t="s">
+      <c r="A109" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B109" s="4"/>
-      <c r="C109" s="4"/>
-      <c r="D109" s="4"/>
+      <c r="B109" s="10"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
@@ -1839,26 +1851,26 @@
       <c r="D116" s="2"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A117" s="5" t="s">
+      <c r="A117" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B117" s="6"/>
-      <c r="C117" s="6"/>
-      <c r="D117" s="7"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="6"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A118" s="8"/>
-      <c r="B118" s="9"/>
-      <c r="C118" s="9"/>
-      <c r="D118" s="10"/>
+      <c r="A118" s="7"/>
+      <c r="B118" s="8"/>
+      <c r="C118" s="8"/>
+      <c r="D118" s="9"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A119" s="4" t="s">
+      <c r="A119" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B119" s="4"/>
-      <c r="C119" s="4"/>
-      <c r="D119" s="4"/>
+      <c r="B119" s="10"/>
+      <c r="C119" s="10"/>
+      <c r="D119" s="10"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
@@ -1941,26 +1953,26 @@
       <c r="D126" s="2"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A127" s="5" t="s">
+      <c r="A127" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B127" s="6"/>
-      <c r="C127" s="6"/>
-      <c r="D127" s="7"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="6"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A128" s="8"/>
-      <c r="B128" s="9"/>
-      <c r="C128" s="9"/>
-      <c r="D128" s="10"/>
+      <c r="A128" s="7"/>
+      <c r="B128" s="8"/>
+      <c r="C128" s="8"/>
+      <c r="D128" s="9"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A129" s="4" t="s">
+      <c r="A129" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B129" s="4"/>
-      <c r="C129" s="4"/>
-      <c r="D129" s="4"/>
+      <c r="B129" s="10"/>
+      <c r="C129" s="10"/>
+      <c r="D129" s="10"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
@@ -2043,26 +2055,26 @@
       <c r="D136" s="2"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A137" s="5" t="s">
+      <c r="A137" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B137" s="6"/>
-      <c r="C137" s="6"/>
-      <c r="D137" s="7"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="6"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A138" s="8"/>
-      <c r="B138" s="9"/>
-      <c r="C138" s="9"/>
-      <c r="D138" s="10"/>
+      <c r="A138" s="7"/>
+      <c r="B138" s="8"/>
+      <c r="C138" s="8"/>
+      <c r="D138" s="9"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A139" s="4" t="s">
+      <c r="A139" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B139" s="4"/>
-      <c r="C139" s="4"/>
-      <c r="D139" s="4"/>
+      <c r="B139" s="10"/>
+      <c r="C139" s="10"/>
+      <c r="D139" s="10"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A140" s="1" t="s">
@@ -2145,26 +2157,26 @@
       <c r="D146" s="2"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A147" s="5" t="s">
+      <c r="A147" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B147" s="6"/>
-      <c r="C147" s="6"/>
-      <c r="D147" s="7"/>
+      <c r="B147" s="5"/>
+      <c r="C147" s="5"/>
+      <c r="D147" s="6"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A148" s="8"/>
-      <c r="B148" s="9"/>
-      <c r="C148" s="9"/>
-      <c r="D148" s="10"/>
+      <c r="A148" s="7"/>
+      <c r="B148" s="8"/>
+      <c r="C148" s="8"/>
+      <c r="D148" s="9"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A149" s="4" t="s">
+      <c r="A149" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B149" s="4"/>
-      <c r="C149" s="4"/>
-      <c r="D149" s="4"/>
+      <c r="B149" s="10"/>
+      <c r="C149" s="10"/>
+      <c r="D149" s="10"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A150" s="1" t="s">
@@ -2247,26 +2259,26 @@
       <c r="D156" s="2"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A157" s="5" t="s">
+      <c r="A157" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B157" s="6"/>
-      <c r="C157" s="6"/>
-      <c r="D157" s="7"/>
+      <c r="B157" s="5"/>
+      <c r="C157" s="5"/>
+      <c r="D157" s="6"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A158" s="8"/>
-      <c r="B158" s="9"/>
-      <c r="C158" s="9"/>
-      <c r="D158" s="10"/>
+      <c r="A158" s="7"/>
+      <c r="B158" s="8"/>
+      <c r="C158" s="8"/>
+      <c r="D158" s="9"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A159" s="4" t="s">
+      <c r="A159" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B159" s="4"/>
-      <c r="C159" s="4"/>
-      <c r="D159" s="4"/>
+      <c r="B159" s="10"/>
+      <c r="C159" s="10"/>
+      <c r="D159" s="10"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A160" s="1" t="s">
@@ -2289,7 +2301,9 @@
       <c r="B161" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C161" s="3"/>
+      <c r="C161" s="3">
+        <v>0.9</v>
+      </c>
       <c r="D161" s="2"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.15">
@@ -2299,7 +2313,9 @@
       <c r="B162" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C162" s="3"/>
+      <c r="C162" s="3">
+        <v>0.82</v>
+      </c>
       <c r="D162" s="2"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.15">
@@ -2309,7 +2325,9 @@
       <c r="B163" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C163" s="3"/>
+      <c r="C163" s="3">
+        <v>1</v>
+      </c>
       <c r="D163" s="2"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.15">
@@ -2319,7 +2337,9 @@
       <c r="B164" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C164" s="3"/>
+      <c r="C164" s="3">
+        <v>0.85</v>
+      </c>
       <c r="D164" s="2"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.15">
@@ -2327,9 +2347,11 @@
         <v>7</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C165" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="C165" s="3">
+        <v>1</v>
+      </c>
       <c r="D165" s="2"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.15">
@@ -2339,31 +2361,132 @@
       <c r="D166" s="2"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A167" s="5" t="s">
+      <c r="A167" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B167" s="6"/>
-      <c r="C167" s="6"/>
-      <c r="D167" s="7"/>
+      <c r="B167" s="5"/>
+      <c r="C167" s="5"/>
+      <c r="D167" s="6"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A168" s="8"/>
-      <c r="B168" s="9"/>
-      <c r="C168" s="9"/>
-      <c r="D168" s="10"/>
+      <c r="A168" s="7"/>
+      <c r="B168" s="8"/>
+      <c r="C168" s="8"/>
+      <c r="D168" s="9"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A169" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B169" s="10"/>
+      <c r="C169" s="10"/>
+      <c r="D169" s="10"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A170" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A171" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C171" s="3"/>
+      <c r="D171" s="2"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A172" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C172" s="3"/>
+      <c r="D172" s="2"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A173" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C173" s="3"/>
+      <c r="D173" s="2"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A174" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C174" s="3"/>
+      <c r="D174" s="2"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A175" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C175" s="3"/>
+      <c r="D175" s="2"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A176" s="2"/>
+      <c r="B176" s="2"/>
+      <c r="C176" s="3"/>
+      <c r="D176" s="2"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A177" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B177" s="5"/>
+      <c r="C177" s="5"/>
+      <c r="D177" s="6"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A178" s="7"/>
+      <c r="B178" s="8"/>
+      <c r="C178" s="8"/>
+      <c r="D178" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="A157:D158"/>
-    <mergeCell ref="A159:D159"/>
-    <mergeCell ref="A167:D168"/>
-    <mergeCell ref="A149:D149"/>
-    <mergeCell ref="A147:D148"/>
-    <mergeCell ref="A8:D9"/>
-    <mergeCell ref="A17:D18"/>
-    <mergeCell ref="A27:D28"/>
-    <mergeCell ref="A37:D38"/>
-    <mergeCell ref="A47:D48"/>
+  <mergeCells count="36">
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="A177:D178"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A139:D139"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A127:D128"/>
+    <mergeCell ref="A137:D138"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A119:D119"/>
+    <mergeCell ref="A129:D129"/>
     <mergeCell ref="A67:D68"/>
     <mergeCell ref="A117:D118"/>
     <mergeCell ref="A107:D108"/>
@@ -2371,23 +2494,16 @@
     <mergeCell ref="A57:D58"/>
     <mergeCell ref="A97:D98"/>
     <mergeCell ref="A87:D88"/>
-    <mergeCell ref="A127:D128"/>
-    <mergeCell ref="A137:D138"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A119:D119"/>
-    <mergeCell ref="A129:D129"/>
-    <mergeCell ref="A139:D139"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A8:D9"/>
+    <mergeCell ref="A17:D18"/>
+    <mergeCell ref="A27:D28"/>
+    <mergeCell ref="A37:D38"/>
+    <mergeCell ref="A47:D48"/>
+    <mergeCell ref="A157:D158"/>
+    <mergeCell ref="A159:D159"/>
+    <mergeCell ref="A167:D168"/>
+    <mergeCell ref="A149:D149"/>
+    <mergeCell ref="A147:D148"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第06组/06组项目计划表 .xlsx
+++ b/第06组/06组项目计划表 .xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
   <si>
     <t>日期：2018.9.27 第五周周四</t>
   </si>
@@ -219,13 +219,22 @@
     <t>内容:测试服务器端与客户端数据传输格式</t>
   </si>
   <si>
-    <t>日期：2018.11.15 第十二周一</t>
+    <t>日期：2018.11.19 第十二周一</t>
   </si>
   <si>
     <t>内容;把网页集成到服务器</t>
   </si>
   <si>
     <t>内容;测试web端的界面交互效果</t>
+  </si>
+  <si>
+    <t>日期：2018.11.21 第十二周三</t>
+  </si>
+  <si>
+    <t>内容:编写网络交互文档</t>
+  </si>
+  <si>
+    <t>内容:编写android 端程序的测试计划</t>
   </si>
 </sst>
 </file>
@@ -233,10 +242,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -255,22 +264,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,16 +325,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,6 +340,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -322,19 +362,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -354,13 +385,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -369,31 +393,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -405,54 +414,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -468,13 +429,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,7 +447,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,37 +507,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,7 +531,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,19 +549,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,13 +561,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,6 +714,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -725,21 +743,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -768,11 +771,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -784,10 +793,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -796,133 +805,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1311,10 +1320,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D188"/>
+  <dimension ref="A1:D198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="F168" sqref="F168"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="B195" sqref="B195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -3128,7 +3137,9 @@
       <c r="B181" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C181" s="4"/>
+      <c r="C181" s="4">
+        <v>0.7</v>
+      </c>
       <c r="D181" s="3"/>
     </row>
     <row r="182" spans="1:4">
@@ -3138,7 +3149,9 @@
       <c r="B182" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C182" s="4"/>
+      <c r="C182" s="4">
+        <v>0.95</v>
+      </c>
       <c r="D182" s="3"/>
     </row>
     <row r="183" spans="1:4">
@@ -3148,7 +3161,9 @@
       <c r="B183" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C183" s="4"/>
+      <c r="C183" s="4">
+        <v>0.8</v>
+      </c>
       <c r="D183" s="3"/>
     </row>
     <row r="184" spans="1:4">
@@ -3158,7 +3173,9 @@
       <c r="B184" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C184" s="4"/>
+      <c r="C184" s="4">
+        <v>1</v>
+      </c>
       <c r="D184" s="3"/>
     </row>
     <row r="185" spans="1:4">
@@ -3168,7 +3185,9 @@
       <c r="B185" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C185" s="4"/>
+      <c r="C185" s="4">
+        <v>1</v>
+      </c>
       <c r="D185" s="3"/>
     </row>
     <row r="186" spans="1:4">
@@ -3191,8 +3210,100 @@
       <c r="C188" s="10"/>
       <c r="D188" s="11"/>
     </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B189" s="1"/>
+      <c r="C189" s="1"/>
+      <c r="D189" s="1"/>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C191" s="4"/>
+      <c r="D191" s="3"/>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C192" s="4"/>
+      <c r="D192" s="3"/>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C193" s="4"/>
+      <c r="D193" s="3"/>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C194" s="4"/>
+      <c r="D194" s="3"/>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C195" s="4"/>
+      <c r="D195" s="3"/>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="3"/>
+      <c r="B196" s="3"/>
+      <c r="C196" s="4"/>
+      <c r="D196" s="3"/>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B197" s="7"/>
+      <c r="C197" s="7"/>
+      <c r="D197" s="8"/>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="9"/>
+      <c r="B198" s="10"/>
+      <c r="C198" s="10"/>
+      <c r="D198" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="40">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A19:D19"/>
@@ -3212,6 +3323,7 @@
     <mergeCell ref="A159:D159"/>
     <mergeCell ref="A169:D169"/>
     <mergeCell ref="A179:D179"/>
+    <mergeCell ref="A189:D189"/>
     <mergeCell ref="A177:D178"/>
     <mergeCell ref="A127:D128"/>
     <mergeCell ref="A137:D138"/>
@@ -3231,6 +3343,7 @@
     <mergeCell ref="A167:D168"/>
     <mergeCell ref="A147:D148"/>
     <mergeCell ref="A187:D188"/>
+    <mergeCell ref="A197:D198"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/第06组/06组项目计划表 .xlsx
+++ b/第06组/06组项目计划表 .xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="79">
   <si>
     <t>日期：2018.9.27 第五周周四</t>
   </si>
@@ -246,6 +246,14 @@
   </si>
   <si>
     <t>李福森</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容:修改不符合美观的页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.11.21 第十三周三</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -392,9 +400,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -412,6 +417,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -717,9 +725,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D208"/>
+  <dimension ref="A1:D218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
       <selection activeCell="B211" sqref="B211"/>
     </sheetView>
   </sheetViews>
@@ -732,12 +740,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -816,12 +824,12 @@
       <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -900,12 +908,12 @@
       <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
@@ -988,26 +996,26 @@
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="7"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="8"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="10"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
@@ -1090,26 +1098,26 @@
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="7"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="6"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="8"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="10"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
@@ -1192,26 +1200,26 @@
       <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="7"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="6"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="8"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="10"/>
+      <c r="A48" s="7"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="9"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
@@ -1268,26 +1276,26 @@
       <c r="D56" s="2"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="7"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="6"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A58" s="8"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="10"/>
+      <c r="A58" s="7"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="9"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
@@ -1370,26 +1378,26 @@
       <c r="D66" s="2"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="7"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="6"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A68" s="8"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="10"/>
+      <c r="A68" s="7"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="9"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
@@ -1472,26 +1480,26 @@
       <c r="D76" s="2"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B77" s="6"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="7"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="6"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A78" s="8"/>
-      <c r="B78" s="9"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="10"/>
+      <c r="A78" s="7"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="9"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
@@ -1574,26 +1582,26 @@
       <c r="D86" s="2"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A87" s="5" t="s">
+      <c r="A87" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="7"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="6"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A88" s="8"/>
-      <c r="B88" s="9"/>
-      <c r="C88" s="9"/>
-      <c r="D88" s="10"/>
+      <c r="A88" s="7"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="9"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A89" s="4" t="s">
+      <c r="A89" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
@@ -1676,26 +1684,26 @@
       <c r="D96" s="2"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A97" s="5" t="s">
+      <c r="A97" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B97" s="6"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="7"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="6"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A98" s="8"/>
-      <c r="B98" s="9"/>
-      <c r="C98" s="9"/>
-      <c r="D98" s="10"/>
+      <c r="A98" s="7"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="9"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A99" s="4" t="s">
+      <c r="A99" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
@@ -1778,26 +1786,26 @@
       <c r="D106" s="2"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A107" s="5" t="s">
+      <c r="A107" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B107" s="6"/>
-      <c r="C107" s="6"/>
-      <c r="D107" s="7"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="6"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A108" s="8"/>
-      <c r="B108" s="9"/>
-      <c r="C108" s="9"/>
-      <c r="D108" s="10"/>
+      <c r="A108" s="7"/>
+      <c r="B108" s="8"/>
+      <c r="C108" s="8"/>
+      <c r="D108" s="9"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A109" s="4" t="s">
+      <c r="A109" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B109" s="4"/>
-      <c r="C109" s="4"/>
-      <c r="D109" s="4"/>
+      <c r="B109" s="10"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
@@ -1880,26 +1888,26 @@
       <c r="D116" s="2"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A117" s="5" t="s">
+      <c r="A117" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B117" s="6"/>
-      <c r="C117" s="6"/>
-      <c r="D117" s="7"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="6"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A118" s="8"/>
-      <c r="B118" s="9"/>
-      <c r="C118" s="9"/>
-      <c r="D118" s="10"/>
+      <c r="A118" s="7"/>
+      <c r="B118" s="8"/>
+      <c r="C118" s="8"/>
+      <c r="D118" s="9"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A119" s="4" t="s">
+      <c r="A119" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B119" s="4"/>
-      <c r="C119" s="4"/>
-      <c r="D119" s="4"/>
+      <c r="B119" s="10"/>
+      <c r="C119" s="10"/>
+      <c r="D119" s="10"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
@@ -1982,26 +1990,26 @@
       <c r="D126" s="2"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A127" s="5" t="s">
+      <c r="A127" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B127" s="6"/>
-      <c r="C127" s="6"/>
-      <c r="D127" s="7"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="6"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A128" s="8"/>
-      <c r="B128" s="9"/>
-      <c r="C128" s="9"/>
-      <c r="D128" s="10"/>
+      <c r="A128" s="7"/>
+      <c r="B128" s="8"/>
+      <c r="C128" s="8"/>
+      <c r="D128" s="9"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A129" s="4" t="s">
+      <c r="A129" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B129" s="4"/>
-      <c r="C129" s="4"/>
-      <c r="D129" s="4"/>
+      <c r="B129" s="10"/>
+      <c r="C129" s="10"/>
+      <c r="D129" s="10"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
@@ -2084,26 +2092,26 @@
       <c r="D136" s="2"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A137" s="5" t="s">
+      <c r="A137" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B137" s="6"/>
-      <c r="C137" s="6"/>
-      <c r="D137" s="7"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="6"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A138" s="8"/>
-      <c r="B138" s="9"/>
-      <c r="C138" s="9"/>
-      <c r="D138" s="10"/>
+      <c r="A138" s="7"/>
+      <c r="B138" s="8"/>
+      <c r="C138" s="8"/>
+      <c r="D138" s="9"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A139" s="4" t="s">
+      <c r="A139" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B139" s="4"/>
-      <c r="C139" s="4"/>
-      <c r="D139" s="4"/>
+      <c r="B139" s="10"/>
+      <c r="C139" s="10"/>
+      <c r="D139" s="10"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A140" s="1" t="s">
@@ -2186,26 +2194,26 @@
       <c r="D146" s="2"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A147" s="5" t="s">
+      <c r="A147" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B147" s="6"/>
-      <c r="C147" s="6"/>
-      <c r="D147" s="7"/>
+      <c r="B147" s="5"/>
+      <c r="C147" s="5"/>
+      <c r="D147" s="6"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A148" s="8"/>
-      <c r="B148" s="9"/>
-      <c r="C148" s="9"/>
-      <c r="D148" s="10"/>
+      <c r="A148" s="7"/>
+      <c r="B148" s="8"/>
+      <c r="C148" s="8"/>
+      <c r="D148" s="9"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A149" s="4" t="s">
+      <c r="A149" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B149" s="4"/>
-      <c r="C149" s="4"/>
-      <c r="D149" s="4"/>
+      <c r="B149" s="10"/>
+      <c r="C149" s="10"/>
+      <c r="D149" s="10"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A150" s="1" t="s">
@@ -2288,26 +2296,26 @@
       <c r="D156" s="2"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A157" s="5" t="s">
+      <c r="A157" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B157" s="6"/>
-      <c r="C157" s="6"/>
-      <c r="D157" s="7"/>
+      <c r="B157" s="5"/>
+      <c r="C157" s="5"/>
+      <c r="D157" s="6"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A158" s="8"/>
-      <c r="B158" s="9"/>
-      <c r="C158" s="9"/>
-      <c r="D158" s="10"/>
+      <c r="A158" s="7"/>
+      <c r="B158" s="8"/>
+      <c r="C158" s="8"/>
+      <c r="D158" s="9"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A159" s="4" t="s">
+      <c r="A159" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B159" s="4"/>
-      <c r="C159" s="4"/>
-      <c r="D159" s="4"/>
+      <c r="B159" s="10"/>
+      <c r="C159" s="10"/>
+      <c r="D159" s="10"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A160" s="1" t="s">
@@ -2390,26 +2398,26 @@
       <c r="D166" s="2"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A167" s="5" t="s">
+      <c r="A167" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B167" s="6"/>
-      <c r="C167" s="6"/>
-      <c r="D167" s="7"/>
+      <c r="B167" s="5"/>
+      <c r="C167" s="5"/>
+      <c r="D167" s="6"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A168" s="8"/>
-      <c r="B168" s="9"/>
-      <c r="C168" s="9"/>
-      <c r="D168" s="10"/>
+      <c r="A168" s="7"/>
+      <c r="B168" s="8"/>
+      <c r="C168" s="8"/>
+      <c r="D168" s="9"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A169" s="4" t="s">
+      <c r="A169" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B169" s="4"/>
-      <c r="C169" s="4"/>
-      <c r="D169" s="4"/>
+      <c r="B169" s="10"/>
+      <c r="C169" s="10"/>
+      <c r="D169" s="10"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A170" s="1" t="s">
@@ -2492,26 +2500,26 @@
       <c r="D176" s="2"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A177" s="5" t="s">
+      <c r="A177" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B177" s="6"/>
-      <c r="C177" s="6"/>
-      <c r="D177" s="7"/>
+      <c r="B177" s="5"/>
+      <c r="C177" s="5"/>
+      <c r="D177" s="6"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A178" s="8"/>
-      <c r="B178" s="9"/>
-      <c r="C178" s="9"/>
-      <c r="D178" s="10"/>
+      <c r="A178" s="7"/>
+      <c r="B178" s="8"/>
+      <c r="C178" s="8"/>
+      <c r="D178" s="9"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A179" s="4" t="s">
+      <c r="A179" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B179" s="4"/>
-      <c r="C179" s="4"/>
-      <c r="D179" s="4"/>
+      <c r="B179" s="10"/>
+      <c r="C179" s="10"/>
+      <c r="D179" s="10"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A180" s="1" t="s">
@@ -2594,26 +2602,26 @@
       <c r="D186" s="2"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A187" s="5" t="s">
+      <c r="A187" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B187" s="6"/>
-      <c r="C187" s="6"/>
-      <c r="D187" s="7"/>
+      <c r="B187" s="5"/>
+      <c r="C187" s="5"/>
+      <c r="D187" s="6"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A188" s="8"/>
-      <c r="B188" s="9"/>
-      <c r="C188" s="9"/>
-      <c r="D188" s="10"/>
+      <c r="A188" s="7"/>
+      <c r="B188" s="8"/>
+      <c r="C188" s="8"/>
+      <c r="D188" s="9"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A189" s="4" t="s">
+      <c r="A189" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B189" s="4"/>
-      <c r="C189" s="4"/>
-      <c r="D189" s="4"/>
+      <c r="B189" s="10"/>
+      <c r="C189" s="10"/>
+      <c r="D189" s="10"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A190" s="1" t="s">
@@ -2696,26 +2704,26 @@
       <c r="D196" s="2"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A197" s="5" t="s">
+      <c r="A197" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B197" s="6"/>
-      <c r="C197" s="6"/>
-      <c r="D197" s="7"/>
+      <c r="B197" s="5"/>
+      <c r="C197" s="5"/>
+      <c r="D197" s="6"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A198" s="8"/>
-      <c r="B198" s="9"/>
-      <c r="C198" s="9"/>
-      <c r="D198" s="10"/>
+      <c r="A198" s="7"/>
+      <c r="B198" s="8"/>
+      <c r="C198" s="8"/>
+      <c r="D198" s="9"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A199" s="4" t="s">
+      <c r="A199" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B199" s="4"/>
-      <c r="C199" s="4"/>
-      <c r="D199" s="4"/>
+      <c r="B199" s="10"/>
+      <c r="C199" s="10"/>
+      <c r="D199" s="10"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A200" s="1" t="s">
@@ -2738,7 +2746,9 @@
       <c r="B201" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C201" s="3"/>
+      <c r="C201" s="3">
+        <v>0.8</v>
+      </c>
       <c r="D201" s="2"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.15">
@@ -2748,7 +2758,9 @@
       <c r="B202" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C202" s="3"/>
+      <c r="C202" s="3">
+        <v>1</v>
+      </c>
       <c r="D202" s="2"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.15">
@@ -2758,7 +2770,9 @@
       <c r="B203" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C203" s="3"/>
+      <c r="C203" s="3">
+        <v>1</v>
+      </c>
       <c r="D203" s="2"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.15">
@@ -2768,7 +2782,9 @@
       <c r="B204" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C204" s="3"/>
+      <c r="C204" s="3">
+        <v>1</v>
+      </c>
       <c r="D204" s="2"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.15">
@@ -2778,7 +2794,9 @@
       <c r="B205" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C205" s="3"/>
+      <c r="C205" s="3">
+        <v>1</v>
+      </c>
       <c r="D205" s="2"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.15">
@@ -2788,41 +2806,110 @@
       <c r="D206" s="2"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A207" s="5" t="s">
+      <c r="A207" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B207" s="6"/>
-      <c r="C207" s="6"/>
-      <c r="D207" s="7"/>
+      <c r="B207" s="5"/>
+      <c r="C207" s="5"/>
+      <c r="D207" s="6"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A208" s="8"/>
-      <c r="B208" s="9"/>
-      <c r="C208" s="9"/>
-      <c r="D208" s="10"/>
+      <c r="A208" s="7"/>
+      <c r="B208" s="8"/>
+      <c r="C208" s="8"/>
+      <c r="D208" s="9"/>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A209" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B209" s="10"/>
+      <c r="C209" s="10"/>
+      <c r="D209" s="10"/>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A210" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A211" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C211" s="3"/>
+      <c r="D211" s="2"/>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A212" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B212" s="2"/>
+      <c r="C212" s="3"/>
+      <c r="D212" s="2"/>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A213" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B213" s="2"/>
+      <c r="C213" s="3"/>
+      <c r="D213" s="2"/>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A214" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B214" s="2"/>
+      <c r="C214" s="3"/>
+      <c r="D214" s="2"/>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A215" s="2"/>
+      <c r="B215" s="2"/>
+      <c r="C215" s="3"/>
+      <c r="D215" s="2"/>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A216" s="2"/>
+      <c r="B216" s="2"/>
+      <c r="C216" s="3"/>
+      <c r="D216" s="2"/>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A217" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B217" s="5"/>
+      <c r="C217" s="5"/>
+      <c r="D217" s="6"/>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A218" s="7"/>
+      <c r="B218" s="8"/>
+      <c r="C218" s="8"/>
+      <c r="D218" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="A147:D148"/>
-    <mergeCell ref="A187:D188"/>
-    <mergeCell ref="A197:D198"/>
-    <mergeCell ref="A199:D199"/>
-    <mergeCell ref="A207:D208"/>
-    <mergeCell ref="A97:D98"/>
-    <mergeCell ref="A87:D88"/>
-    <mergeCell ref="A8:D9"/>
-    <mergeCell ref="A17:D18"/>
-    <mergeCell ref="A27:D28"/>
-    <mergeCell ref="A37:D38"/>
-    <mergeCell ref="A47:D48"/>
-    <mergeCell ref="A149:D149"/>
-    <mergeCell ref="A159:D159"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="A179:D179"/>
-    <mergeCell ref="A189:D189"/>
-    <mergeCell ref="A177:D178"/>
-    <mergeCell ref="A157:D158"/>
-    <mergeCell ref="A167:D168"/>
+  <mergeCells count="44">
+    <mergeCell ref="A209:D209"/>
+    <mergeCell ref="A217:D218"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A39:D39"/>
     <mergeCell ref="A99:D99"/>
     <mergeCell ref="A109:D109"/>
     <mergeCell ref="A119:D119"/>
@@ -2832,6 +2919,13 @@
     <mergeCell ref="A137:D138"/>
     <mergeCell ref="A117:D118"/>
     <mergeCell ref="A107:D108"/>
+    <mergeCell ref="A97:D98"/>
+    <mergeCell ref="A87:D88"/>
+    <mergeCell ref="A8:D9"/>
+    <mergeCell ref="A17:D18"/>
+    <mergeCell ref="A27:D28"/>
+    <mergeCell ref="A37:D38"/>
+    <mergeCell ref="A47:D48"/>
     <mergeCell ref="A49:D49"/>
     <mergeCell ref="A59:D59"/>
     <mergeCell ref="A69:D69"/>
@@ -2840,15 +2934,23 @@
     <mergeCell ref="A67:D68"/>
     <mergeCell ref="A77:D78"/>
     <mergeCell ref="A57:D58"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A147:D148"/>
+    <mergeCell ref="A187:D188"/>
+    <mergeCell ref="A197:D198"/>
+    <mergeCell ref="A199:D199"/>
+    <mergeCell ref="A207:D208"/>
+    <mergeCell ref="A149:D149"/>
+    <mergeCell ref="A159:D159"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="A179:D179"/>
+    <mergeCell ref="A189:D189"/>
+    <mergeCell ref="A177:D178"/>
+    <mergeCell ref="A157:D158"/>
+    <mergeCell ref="A167:D168"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
